--- a/Tables/aq_hmf_metrics_outlet_mean_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_30_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,61 +547,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2655377877232346</v>
+        <v>0.319951965790253</v>
       </c>
       <c r="C2" t="n">
-        <v>59.70191598340024</v>
+        <v>65.56712314085414</v>
       </c>
       <c r="D2" t="n">
-        <v>23.24442608349302</v>
+        <v>28.13674182713478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1205582146585947</v>
+        <v>0.1519141333777354</v>
       </c>
       <c r="F2" t="n">
-        <v>72.22233333333332</v>
+        <v>66.19057142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85529050696467</v>
+        <v>4.320786754712649</v>
       </c>
       <c r="H2" t="n">
-        <v>199.130480699821</v>
+        <v>204.1768833226854</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05490958887537523</v>
+        <v>0.07141943980315912</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0717344950520353</v>
+        <v>0.1048045972776351</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09784978101638653</v>
+        <v>0.1201746257348131</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08341685995826939</v>
+        <v>0.101585156450842</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06502486735535806</v>
+        <v>0.08023135491270174</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06209056269659426</v>
+        <v>0.07710045375106227</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03714353960818598</v>
+        <v>0.0473054859294461</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01552602936532546</v>
+        <v>0.01660442723890717</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0152320334215048</v>
+        <v>0.02209337325011548</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03100644010690269</v>
+        <v>0.04398809202513256</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02822781327106199</v>
+        <v>0.03487421119861978</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03518605959476526</v>
+        <v>0.04070204997397236</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1306,61 +1306,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5627019565719835</v>
+        <v>0.5122923023854301</v>
       </c>
       <c r="C13" t="n">
-        <v>39.63777259721787</v>
+        <v>39.70589355047751</v>
       </c>
       <c r="D13" t="n">
-        <v>10.90814788924051</v>
+        <v>10.51961280213366</v>
       </c>
       <c r="E13" t="n">
-        <v>0.275772092222636</v>
+        <v>0.2318817289697599</v>
       </c>
       <c r="F13" t="n">
-        <v>92.22233333333334</v>
+        <v>92.05375000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>6.63404337208685</v>
+        <v>6.155731959264568</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0180576836124</v>
+        <v>151.1499392741053</v>
       </c>
       <c r="I13" t="n">
-        <v>0.181571907926211</v>
+        <v>0.1521236972955222</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1241588692051661</v>
+        <v>0.1146099383202864</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1757610193301084</v>
+        <v>0.1612871129183355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.187069475489912</v>
+        <v>0.1595022690949314</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2324999739621681</v>
+        <v>0.2065085671733088</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1295252977287467</v>
+        <v>0.1092193527269709</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02441468805218878</v>
+        <v>0.02029253835030047</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01670802362469838</v>
+        <v>0.01457849562878339</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03093830699084157</v>
+        <v>0.05389189187447771</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03058207076357845</v>
+        <v>0.04841865679325105</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2405312613216262</v>
+        <v>0.1949409466420599</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09490665663661947</v>
+        <v>0.09639321551591248</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1444,61 +1444,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7910882860149795</v>
+        <v>0.7776071103079238</v>
       </c>
       <c r="C15" t="n">
-        <v>36.9058908045977</v>
+        <v>37.70229885057471</v>
       </c>
       <c r="D15" t="n">
-        <v>5.751364705711965</v>
+        <v>6.513316152374431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1209365041050629</v>
+        <v>0.1235398020715597</v>
       </c>
       <c r="F15" t="n">
-        <v>98.750125</v>
+        <v>97.05894117647058</v>
       </c>
       <c r="G15" t="n">
-        <v>7.61853448275862</v>
+        <v>6.85369106890405</v>
       </c>
       <c r="H15" t="n">
-        <v>173.5841235632184</v>
+        <v>174.410467760772</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1479402437593036</v>
+        <v>0.1439867723190632</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1428796824558611</v>
+        <v>0.1441743823272686</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2111488847112422</v>
+        <v>0.2071026928166499</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1850532568244706</v>
+        <v>0.1841452958477538</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1302479720610323</v>
+        <v>0.1302289995910163</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1180862826842481</v>
+        <v>0.1204844993017769</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07152351964540374</v>
+        <v>0.07564636859536822</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08457217422189968</v>
+        <v>0.08002388410040348</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3376607370914542</v>
+        <v>0.333857480383612</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1011874711876839</v>
+        <v>0.103357426815189</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09802251597353868</v>
+        <v>0.1011001894100451</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1375176318623444</v>
+        <v>0.134505703614407</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,61 +1927,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.001641317400777</v>
+        <v>0.3232995735120392</v>
       </c>
       <c r="C22" t="n">
-        <v>60.88888888888889</v>
+        <v>59.08477168611439</v>
       </c>
       <c r="D22" t="n">
-        <v>33.6287037037037</v>
+        <v>26.51258830691832</v>
       </c>
       <c r="E22" t="n">
-        <v>1.074511161406133</v>
+        <v>0.1507228536536466</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>66.19057142857143</v>
       </c>
       <c r="G22" t="n">
-        <v>2.666666666666667</v>
+        <v>2.902654080787073</v>
       </c>
       <c r="H22" t="n">
-        <v>209.0555555555555</v>
+        <v>216.4345419499512</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4124844818442399</v>
+        <v>0.06150932318701256</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4400655435021854</v>
+        <v>0.06562046318798699</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5762930940764152</v>
+        <v>0.09690672199162456</v>
       </c>
       <c r="L22" t="n">
-        <v>0.78639336792197</v>
+        <v>0.1227931402367882</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6119733587335551</v>
+        <v>0.1060121335934834</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5527548131619984</v>
+        <v>0.09561136968483334</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03247829037633533</v>
+        <v>0.0207211113964332</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.00024002653662576</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.002571950892625054</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.001342436002221886</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.002347419334458814</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07590500632209533</v>
+        <v>0.008688325681246462</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_mean_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_30_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,65 +543,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.319951965790253</v>
+        <v>0.2917885789489018</v>
       </c>
       <c r="C2" t="n">
-        <v>65.56712314085414</v>
+        <v>66.2805869204078</v>
       </c>
       <c r="D2" t="n">
-        <v>28.13674182713478</v>
+        <v>24.24207554226044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1519141333777354</v>
+        <v>0.1159574542342925</v>
       </c>
       <c r="F2" t="n">
-        <v>66.19057142857143</v>
+        <v>65.71442857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>4.320786754712649</v>
+        <v>4.117190809357226</v>
       </c>
       <c r="H2" t="n">
-        <v>204.1768833226854</v>
+        <v>220.8189328372573</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07141943980315912</v>
+        <v>0.1884942238574649</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1048045972776351</v>
+        <v>0.1273559328545903</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1201746257348131</v>
+        <v>0.1151185653342303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.101585156450842</v>
+        <v>0.07339041807273525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08023135491270174</v>
+        <v>0.05653484315731926</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07710045375106227</v>
+        <v>0.05169699319812937</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0473054859294461</v>
+        <v>0.02780172260852021</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01660442723890717</v>
+        <v>0.01546641706245452</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02209337325011548</v>
+        <v>0.02001102049987194</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04398809202513256</v>
+        <v>0.03290119493993527</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03487421119861978</v>
+        <v>0.03178457414361179</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04070204997397236</v>
+        <v>0.01275165456142761</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02488916920850227</v>
+        <v>0.1729726596072752</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46951659451661</v>
+        <v>60.34139366907346</v>
       </c>
       <c r="D3" t="n">
-        <v>13.93142315136363</v>
+        <v>23.20165004203044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006388310887323626</v>
+        <v>0.06814265482384496</v>
       </c>
       <c r="F3" t="n">
-        <v>64.68375</v>
+        <v>68.23535294117647</v>
       </c>
       <c r="G3" t="n">
-        <v>5.498917748917749</v>
+        <v>3.852549175819525</v>
       </c>
       <c r="H3" t="n">
-        <v>187.0685425685426</v>
+        <v>211.3673029267245</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003928863923123826</v>
+        <v>0.0874233371307296</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004002973317750376</v>
+        <v>0.06457455888386968</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004715370971671452</v>
+        <v>0.05639027812020152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005913750275658777</v>
+        <v>0.04539217988688627</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002907168441093123</v>
+        <v>0.04397759009082894</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004197682867561915</v>
+        <v>0.03646874926607456</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006259734956302184</v>
+        <v>0.01544892569026642</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009085709743481173</v>
+        <v>0.006692597436615435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008499140586396026</v>
+        <v>0.008302574640279179</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008002300072900884</v>
+        <v>0.01504117563418602</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004963963192583168</v>
+        <v>0.01399059297666181</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005508577268330881</v>
+        <v>0.00727208620913859</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5707279645013884</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C4" t="n">
-        <v>39.5226271174547</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>8.900301227590992</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10398387655922</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F4" t="n">
-        <v>92.99675000000001</v>
+        <v>73.333</v>
       </c>
       <c r="G4" t="n">
-        <v>5.846094813551709</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9555278666629</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2216546333286187</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1861541379687655</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1515972115113547</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06576032996016029</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02255693376298126</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01848790490742971</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002069293208880199</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P4" t="n">
-        <v>7.370308833048001e-05</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002424676656288197</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R4" t="n">
-        <v>0.008967717367604868</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03239674775712648</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T4" t="n">
-        <v>0.151785372784554</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.013380111560679</v>
+        <v>0.5926662674524822</v>
       </c>
       <c r="C5" t="n">
-        <v>39.71139430284857</v>
+        <v>43.19555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>11.11796203900418</v>
+        <v>11.72671402363069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3650690003297654</v>
+        <v>0.1145984497286334</v>
       </c>
       <c r="F5" t="n">
-        <v>91.66675000000001</v>
+        <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>4.907635467980296</v>
+        <v>5.089444444444444</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5799153994431</v>
+        <v>133.745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0065282790825504</v>
+        <v>0.2431854327389903</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0850817034334512</v>
+        <v>0.1955417374223913</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2043551739025872</v>
+        <v>0.1473258060608175</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4818661983175838</v>
+        <v>0.062689388770733</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3383546111497999</v>
+        <v>0.02169779231910177</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2723747677256622</v>
+        <v>0.00837487601443487</v>
       </c>
       <c r="O5" t="n">
-        <v>0.230031620186634</v>
+        <v>0.0003688701951065992</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0251069621368104</v>
+        <v>5.627123756352e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1728878434930368</v>
+        <v>3.992321976354394e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3007302263686332</v>
+        <v>0.005476063483191866</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05136830016885505</v>
+        <v>0.01531491981960453</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0328279467981528</v>
+        <v>0.1682525061586684</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.256980213097086</v>
+        <v>0.7340446143768297</v>
       </c>
       <c r="C6" t="n">
-        <v>72.75833333333334</v>
+        <v>39.04776863835656</v>
       </c>
       <c r="D6" t="n">
-        <v>36.66513888888889</v>
+        <v>10.32681602077684</v>
       </c>
       <c r="E6" t="n">
-        <v>1.132155314578322</v>
+        <v>0.2278832209877542</v>
       </c>
       <c r="F6" t="n">
-        <v>53.3335</v>
+        <v>93.57135714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>2.475</v>
+        <v>5.33595094742878</v>
       </c>
       <c r="H6" t="n">
-        <v>162.3833333333334</v>
+        <v>209.3120434907263</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5072854464954805</v>
+        <v>0.01211642683776837</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8805169786928075</v>
+        <v>0.0524130141336197</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6896268934109804</v>
+        <v>0.1762548633552984</v>
       </c>
       <c r="L6" t="n">
-        <v>0.797262515033796</v>
+        <v>0.3531540407372283</v>
       </c>
       <c r="M6" t="n">
-        <v>0.456541919140644</v>
+        <v>0.2090933074267349</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2859435169668</v>
+        <v>0.1806322137895186</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0426193460155008</v>
+        <v>0.1591668187544268</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.05359227894881485</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.1154613589051108</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1793870162511011</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.05022232005415993</v>
       </c>
       <c r="T6" t="n">
-        <v>0.275295816308268</v>
+        <v>0.02397907736727097</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.005536755670717</v>
+        <v>0.08999219663166248</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0908984813149</v>
+        <v>40.0883379498322</v>
       </c>
       <c r="D7" t="n">
-        <v>7.942877534642906</v>
+        <v>5.583244784073497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2158188695316029</v>
+        <v>0.01206071152216477</v>
       </c>
       <c r="F7" t="n">
-        <v>91.66675000000001</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>5.786510092176134</v>
+        <v>7.074780094320325</v>
       </c>
       <c r="H7" t="n">
-        <v>165.10531021989</v>
+        <v>226.1788977625184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2640745696556626</v>
+        <v>0.001117816580925912</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2544294932415606</v>
+        <v>0.006550068976914357</v>
       </c>
       <c r="K7" t="n">
-        <v>0.274055649966329</v>
+        <v>0.01414365950608404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1717820964770044</v>
+        <v>0.0115914996272226</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2332349477431771</v>
+        <v>0.03679635235207976</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1915673908493128</v>
+        <v>0.02396543800865445</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1956264486476967</v>
+        <v>0.01653872319290263</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1263777459587606</v>
+        <v>0.0129047925551757</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1643064907039889</v>
+        <v>0.01095774570665749</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1616162144327455</v>
+        <v>0.01582996204525927</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1666841204418245</v>
+        <v>0.01666086685190792</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1750466221927903</v>
+        <v>0.005225641437361484</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.240297185811974</v>
+        <v>1.508606073884179</v>
       </c>
       <c r="C8" t="n">
-        <v>41.04521832833583</v>
+        <v>64.99040404040404</v>
       </c>
       <c r="D8" t="n">
-        <v>10.94485068050104</v>
+        <v>28.21158970658971</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3659230937154588</v>
+        <v>0.7558092814697543</v>
       </c>
       <c r="F8" t="n">
-        <v>89.569</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>4.361016366816592</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>195.4942297601199</v>
+        <v>154.6343434343434</v>
       </c>
       <c r="I8" t="n">
-        <v>0.176522798629618</v>
+        <v>0.3395763409623974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2315008527281426</v>
+        <v>0.5885763352536694</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2088718509537731</v>
+        <v>0.4607743488089711</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2329149959672162</v>
+        <v>0.5324440894963239</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5108325254153825</v>
+        <v>0.3053465620010059</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5447920122541665</v>
+        <v>0.1912291155164335</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2047394318928437</v>
+        <v>0.02869914668257728</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0061164388656</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0002660650906536</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01451234342986199</v>
+        <v>0.000413580004005504</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06328539489919389</v>
+        <v>0.1843160274786971</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.022947528095584</v>
+        <v>1.137137794565327</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3158898267594</v>
+        <v>37.49727969348659</v>
       </c>
       <c r="D9" t="n">
-        <v>9.060818208674489</v>
+        <v>6.7782524688602</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3118563490832991</v>
+        <v>0.2210593809410583</v>
       </c>
       <c r="F9" t="n">
-        <v>80.8335</v>
+        <v>97.3335</v>
       </c>
       <c r="G9" t="n">
-        <v>5.307690095733574</v>
+        <v>6.160945083014049</v>
       </c>
       <c r="H9" t="n">
-        <v>183.433891189326</v>
+        <v>157.7493486590038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2053851857379663</v>
+        <v>0.2931246546455056</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1550868104506926</v>
+        <v>0.3398141753641548</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2398448814753704</v>
+        <v>0.3305354246944038</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1418835930388858</v>
+        <v>0.2464351898803543</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2918561809923816</v>
+        <v>0.2494199252445581</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4654923212530171</v>
+        <v>0.1312427238152394</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3795039735852426</v>
+        <v>0.1185889325221113</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2461047040596009</v>
+        <v>0.04751096799826427</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05302391822912517</v>
+        <v>0.1390567987791987</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1660989203778512</v>
+        <v>0.1270478286058362</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1459226542726764</v>
+        <v>0.1011229332811511</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2636657985778127</v>
+        <v>0.1922137331813646</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9026176647257931</v>
+        <v>0.7782484135963428</v>
       </c>
       <c r="C10" t="n">
-        <v>43.75556613756613</v>
+        <v>40.33581024847054</v>
       </c>
       <c r="D10" t="n">
-        <v>12.58817828077273</v>
+        <v>8.212340072273152</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2494170753056678</v>
+        <v>0.1856487001364683</v>
       </c>
       <c r="F10" t="n">
-        <v>82.52860000000001</v>
+        <v>90.98041176470588</v>
       </c>
       <c r="G10" t="n">
-        <v>4.717005291005291</v>
+        <v>6.35877455063318</v>
       </c>
       <c r="H10" t="n">
-        <v>179.3514074074074</v>
+        <v>162.5217307522709</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2236060780539321</v>
+        <v>0.222680993883565</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2356754971909567</v>
+        <v>0.1819326680672364</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2726260876744267</v>
+        <v>0.2035947424103594</v>
       </c>
       <c r="L10" t="n">
-        <v>0.28710761705884</v>
+        <v>0.1241475376309717</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1264827581267809</v>
+        <v>0.2059744908062191</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03030310122256267</v>
+        <v>0.1702840786702695</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3579488775942332</v>
+        <v>0.1883570667451368</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06392845944751088</v>
+        <v>0.1394107632246513</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1156924178421045</v>
+        <v>0.1518560653371663</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1775936527232074</v>
+        <v>0.1498127144045748</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09479788350115523</v>
+        <v>0.1517808022272643</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2335509560635304</v>
+        <v>0.143098277010182</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.182850244852945</v>
+        <v>3.400036399675985</v>
       </c>
       <c r="C11" t="n">
-        <v>39.2483284403974</v>
+        <v>45.04417391304348</v>
       </c>
       <c r="D11" t="n">
-        <v>5.534155021969704</v>
+        <v>14.66999825437421</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02473165709525766</v>
+        <v>1.053040939091854</v>
       </c>
       <c r="F11" t="n">
-        <v>93.33340000000001</v>
+        <v>80.66659999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>6.755238426962565</v>
+        <v>4.14295652173913</v>
       </c>
       <c r="H11" t="n">
-        <v>225.6390372526579</v>
+        <v>220.5227826086956</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002001382388155483</v>
+        <v>0.3006283200894344</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01259108129754757</v>
+        <v>0.7451503105681143</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05084430358436429</v>
+        <v>0.5024770619444341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02528397863913462</v>
+        <v>0.6247063489929918</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05683982330970416</v>
+        <v>1.431895802017253</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06353326892791103</v>
+        <v>1.530994653856408</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04129900220633726</v>
+        <v>0.5063601913721787</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01909313560218635</v>
+        <v>0.009786302184959999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01727638245101917</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02125048060402956</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01613412185521972</v>
+        <v>0.02071270857446782</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01487133455679417</v>
+        <v>0.1218832209539504</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3399504055363953</v>
+        <v>0.3796321465667868</v>
       </c>
       <c r="C12" t="n">
-        <v>44.03678775624952</v>
+        <v>44.52735226831029</v>
       </c>
       <c r="D12" t="n">
-        <v>11.70816373269325</v>
+        <v>8.460492925961372</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1238439660352394</v>
+        <v>0.06217305061657959</v>
       </c>
       <c r="F12" t="n">
-        <v>86.22224444444444</v>
+        <v>84.33340000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>5.008610346095437</v>
+        <v>5.784465481544942</v>
       </c>
       <c r="H12" t="n">
-        <v>233.3093633752061</v>
+        <v>194.773915280455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002648593149245564</v>
+        <v>0.04827177116878509</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005321851603025046</v>
+        <v>0.06485530534045336</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04005609744798647</v>
+        <v>0.07588859984108789</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06680425394660926</v>
+        <v>0.05573181671246653</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08837988285261421</v>
+        <v>0.1048678010374322</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1034581332542184</v>
+        <v>0.1381992729142798</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1191559025523015</v>
+        <v>0.0982239549085311</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08045789461978005</v>
+        <v>0.06157784675955023</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06261552558607679</v>
+        <v>0.04290316542302015</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0557140513561292</v>
+        <v>0.07345902389771447</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04016695480861532</v>
+        <v>0.06995304718240559</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0167758916044614</v>
+        <v>0.08230757405740539</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5122923023854301</v>
+        <v>0.7474013448168156</v>
       </c>
       <c r="C13" t="n">
-        <v>39.70589355047751</v>
+        <v>48.99221679555012</v>
       </c>
       <c r="D13" t="n">
-        <v>10.51961280213366</v>
+        <v>18.97687695363621</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2318817289697599</v>
+        <v>0.2248704357744789</v>
       </c>
       <c r="F13" t="n">
-        <v>92.05375000000001</v>
+        <v>75.51716666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>6.155731959264568</v>
+        <v>3.489683896350563</v>
       </c>
       <c r="H13" t="n">
-        <v>151.1499392741053</v>
+        <v>194.9462583095917</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1521236972955222</v>
+        <v>0.1871600050481431</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1146099383202864</v>
+        <v>0.1926434658168826</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1612871129183355</v>
+        <v>0.2428337620027197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1595022690949314</v>
+        <v>0.2364289055368128</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2065085671733088</v>
+        <v>0.1044004755904488</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1092193527269709</v>
+        <v>0.0284820713546472</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02029253835030047</v>
+        <v>0.3000227437102291</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01457849562878339</v>
+        <v>0.0621218540542944</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05389189187447771</v>
+        <v>0.09370480942998743</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04841865679325105</v>
+        <v>0.144124095565679</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1949409466420599</v>
+        <v>0.0752019556547112</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09639321551591248</v>
+        <v>0.191814314430647</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8744555680902927</v>
+        <v>0.1679221108015846</v>
       </c>
       <c r="C14" t="n">
-        <v>37.48844615899213</v>
+        <v>39.78545120109775</v>
       </c>
       <c r="D14" t="n">
-        <v>6.669219130354396</v>
+        <v>9.022955969518224</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1672000504209819</v>
+        <v>0.03506991850053126</v>
       </c>
       <c r="F14" t="n">
-        <v>96.66674999999999</v>
+        <v>91.66668749999999</v>
       </c>
       <c r="G14" t="n">
-        <v>7.336064504886345</v>
+        <v>5.867247466773329</v>
       </c>
       <c r="H14" t="n">
-        <v>152.3567474351957</v>
+        <v>235.9149444261837</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1872649621121799</v>
+        <v>0.005099353993579417</v>
       </c>
       <c r="J14" t="n">
-        <v>0.247460506809503</v>
+        <v>0.01219818565972387</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2497282927508571</v>
+        <v>0.0482413701765349</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1935444322355777</v>
+        <v>0.02516849020174922</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2120643766842891</v>
+        <v>0.0493162378107592</v>
       </c>
       <c r="N14" t="n">
-        <v>0.103914085206928</v>
+        <v>0.0700125244140589</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07483134314830465</v>
+        <v>0.03941577515631673</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05385523126676375</v>
+        <v>0.02286222395362635</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1192242273993481</v>
+        <v>0.01606197558787909</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1693272792185236</v>
+        <v>0.01554102700475949</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08218204816651435</v>
+        <v>0.01030362387965445</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1585541213858852</v>
+        <v>0.008856715521082893</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7776071103079238</v>
+        <v>0.6256997414375106</v>
       </c>
       <c r="C15" t="n">
-        <v>37.70229885057471</v>
+        <v>44.7672142705718</v>
       </c>
       <c r="D15" t="n">
-        <v>6.513316152374431</v>
+        <v>15.09742860552444</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1235398020715597</v>
+        <v>0.2217284730734689</v>
       </c>
       <c r="F15" t="n">
-        <v>97.05894117647058</v>
+        <v>85.26331578947368</v>
       </c>
       <c r="G15" t="n">
-        <v>6.85369106890405</v>
+        <v>4.082586975100587</v>
       </c>
       <c r="H15" t="n">
-        <v>174.410467760772</v>
+        <v>234.8087403522068</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1439867723190632</v>
+        <v>0.001977880046928576</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1441743823272686</v>
+        <v>0.01154847136677746</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2071026928166499</v>
+        <v>0.09832648762646219</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1841452958477538</v>
+        <v>0.1761988359464148</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1302289995910163</v>
+        <v>0.1502012631926873</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1204844993017769</v>
+        <v>0.1843764537793303</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07564636859536822</v>
+        <v>0.1831413705870031</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08002388410040348</v>
+        <v>0.1160377219684899</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.333857480383612</v>
+        <v>0.08067175727876402</v>
       </c>
       <c r="R15" t="n">
-        <v>0.103357426815189</v>
+        <v>0.1069341172906279</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1011001894100451</v>
+        <v>0.05290439614611089</v>
       </c>
       <c r="T15" t="n">
-        <v>0.134505703614407</v>
+        <v>0.01851649196232212</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.947921520180567</v>
+        <v>3.051589421944531</v>
       </c>
       <c r="C16" t="n">
-        <v>48.33475783475783</v>
+        <v>44.6388973345495</v>
       </c>
       <c r="D16" t="n">
-        <v>31.99501424501424</v>
+        <v>17.35817077462407</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6837998052411334</v>
+        <v>1.261345539306226</v>
       </c>
       <c r="F16" t="n">
-        <v>77.77800000000001</v>
+        <v>83.29383333333334</v>
       </c>
       <c r="G16" t="n">
-        <v>1.821937321937322</v>
+        <v>3.868581673291818</v>
       </c>
       <c r="H16" t="n">
-        <v>248.9102564102564</v>
+        <v>165.4503843713989</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003074529936441422</v>
+        <v>0.5271902064526907</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03337699912698784</v>
+        <v>0.2182708401345288</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01838628707172049</v>
+        <v>0.4956493418184438</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07574529930727171</v>
+        <v>0.7692229417496348</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3664684891285554</v>
+        <v>1.192024916254555</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5144753482426949</v>
+        <v>1.019496997011758</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1572782043111633</v>
+        <v>1.187063969755033</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01509700217066482</v>
+        <v>1.209766705403273</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.4677986326461603</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0007372347646002134</v>
+        <v>0.3464349737831624</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003001132670054044</v>
+        <v>0.5130359318823384</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001386392809536</v>
+        <v>0.3659557578155364</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.60840618725265</v>
+        <v>0.9853015355931113</v>
       </c>
       <c r="C17" t="n">
-        <v>57.53846153846154</v>
+        <v>37.72915238809167</v>
       </c>
       <c r="D17" t="n">
-        <v>24.56392595499738</v>
+        <v>6.548192436103798</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8658341795740416</v>
+        <v>0.2253568576950842</v>
       </c>
       <c r="F17" t="n">
-        <v>68.3335</v>
+        <v>96.38891666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>2.733516483516483</v>
+        <v>8.321488065491064</v>
       </c>
       <c r="H17" t="n">
-        <v>224.456043956044</v>
+        <v>155.7970850884082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.025352639097912</v>
+        <v>0.216133709120618</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2057355959027544</v>
+        <v>0.2461541736185081</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2244610734897888</v>
+        <v>0.2683322387498949</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2915723882771136</v>
+        <v>0.2022608392289487</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5768494119932407</v>
+        <v>0.2516171397248869</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8177414281721469</v>
+        <v>0.198124246256637</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1535552365338432</v>
+        <v>0.1329294872439225</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.1172771743143811</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.89315109248e-05</v>
+        <v>0.1040163926953904</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0008134863691248</v>
+        <v>0.1597730602837814</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0033395756206176</v>
+        <v>0.08961667886565028</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0224595635144832</v>
+        <v>0.1813726133678616</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.522353379293591</v>
+        <v>1.245221249126635</v>
       </c>
       <c r="C18" t="n">
-        <v>37.81580459770115</v>
+        <v>38.04149425287356</v>
       </c>
       <c r="D18" t="n">
-        <v>6.034147220362142</v>
+        <v>5.459648502442439</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3336046050448898</v>
+        <v>0.182733557958615</v>
       </c>
       <c r="F18" t="n">
-        <v>95.8335</v>
+        <v>96.66670000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>7.698659003831417</v>
+        <v>8.375757575757577</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9367496807152</v>
+        <v>174.701013584117</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5043132289903378</v>
+        <v>0.2429624430029829</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3220954040732322</v>
+        <v>0.2229774608229873</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2548295101945767</v>
+        <v>0.3284206702874285</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1447041599085213</v>
+        <v>0.3058721320163735</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04759569635972952</v>
+        <v>0.206972282316429</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1418014798471152</v>
+        <v>0.1876413932299662</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06300766091413311</v>
+        <v>0.126095113302704</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0270142716564</v>
+        <v>0.1114148029317564</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.016697878103088</v>
+        <v>0.4858112232447468</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06249384033228721</v>
+        <v>0.1396194047905798</v>
       </c>
       <c r="S18" t="n">
-        <v>0.29632285482484</v>
+        <v>0.1678679683399957</v>
       </c>
       <c r="T18" t="n">
-        <v>0.505232648609043</v>
+        <v>0.2075695187135017</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.025814887115484</v>
+        <v>0.3221373171848689</v>
       </c>
       <c r="C19" t="n">
-        <v>39.32041201363861</v>
+        <v>37.98831417624521</v>
       </c>
       <c r="D19" t="n">
-        <v>6.261950124611631</v>
+        <v>5.460520378814012</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1522429318800528</v>
+        <v>0.04373807545489698</v>
       </c>
       <c r="F19" t="n">
-        <v>93.57135714285714</v>
+        <v>95.8335</v>
       </c>
       <c r="G19" t="n">
-        <v>6.662062212554823</v>
+        <v>6.275925925925926</v>
       </c>
       <c r="H19" t="n">
-        <v>172.351669344157</v>
+        <v>224.8292464878672</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2284026589641968</v>
+        <v>0.00332673109899984</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2129879469984973</v>
+        <v>0.02165259977849739</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2752520151960042</v>
+        <v>0.1058952697017847</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2239604724942667</v>
+        <v>0.04582269715700264</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1634649848084836</v>
+        <v>0.08690502974614077</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1299864256247625</v>
+        <v>0.1228850153067959</v>
       </c>
       <c r="O19" t="n">
-        <v>0.158201121223285</v>
+        <v>0.0784394207264892</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08904748935767756</v>
+        <v>0.02837565017270232</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3429275178655811</v>
+        <v>0.02675433756756168</v>
       </c>
       <c r="R19" t="n">
-        <v>0.137216796993914</v>
+        <v>0.029381258442185</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1784529044969536</v>
+        <v>0.01534400436018744</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1981482634463663</v>
+        <v>0.02933987423594321</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,65 +1785,65 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.198894941549568</v>
+        <v>0.6201012666121101</v>
       </c>
       <c r="C20" t="n">
-        <v>51.90476190476191</v>
+        <v>42.9087658924926</v>
       </c>
       <c r="D20" t="n">
-        <v>34.44126984126984</v>
+        <v>26.43337701256646</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1364720227822224</v>
+        <v>0.4081977613005864</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.151216836993235</v>
       </c>
       <c r="H20" t="n">
-        <v>216.6190476190476</v>
+        <v>245.0475139146568</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.01131785847690624</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.02630604628756224</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009093105780192</v>
+        <v>0.0297510227127838</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04711214838223244</v>
+        <v>0.06422047149603975</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.2375379613565569</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08567499800341441</v>
+        <v>0.3717667872973943</v>
       </c>
       <c r="O20" t="n">
-        <v>0.072693875917656</v>
+        <v>0.09075573312681788</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0044935437532608</v>
+        <v>4.1504406588e-05</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0009052329521088001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.00159691481011008</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.512598591108551</v>
+        <v>1.16909722603376</v>
       </c>
       <c r="C21" t="n">
-        <v>38.35859332238643</v>
+        <v>42.69893028188287</v>
       </c>
       <c r="D21" t="n">
-        <v>9.143739021993333</v>
+        <v>13.11455838518123</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4624211925391735</v>
+        <v>0.3295809480629455</v>
       </c>
       <c r="F21" t="n">
-        <v>95</v>
+        <v>88.1250625</v>
       </c>
       <c r="G21" t="n">
-        <v>4.913820470717022</v>
+        <v>4.375724548440066</v>
       </c>
       <c r="H21" t="n">
-        <v>202.6704638752053</v>
+        <v>190.7461870552819</v>
       </c>
       <c r="I21" t="n">
-        <v>0.096189411265</v>
+        <v>0.2677467102126952</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1192840953120737</v>
+        <v>0.2905494584540647</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2424278443926261</v>
+        <v>0.336752425095357</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5150003770193462</v>
+        <v>0.2962685112163593</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4595962488456535</v>
+        <v>0.367537036098921</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4119033460106781</v>
+        <v>0.3113513709826902</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5266913564902103</v>
+        <v>0.07938248129169095</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1615830625449431</v>
+        <v>0.001117702747202568</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.207318734162467</v>
+        <v>0.001494246014866081</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5126472847073087</v>
+        <v>0.002473400499550562</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1427209844899103</v>
+        <v>0.06635387344461183</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1127128616382958</v>
+        <v>0.1809378481218739</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3232995735120392</v>
+        <v>0.7491276383762245</v>
       </c>
       <c r="C22" t="n">
-        <v>59.08477168611439</v>
+        <v>45.91480470326946</v>
       </c>
       <c r="D22" t="n">
-        <v>26.51258830691832</v>
+        <v>18.083829502664</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1507228536536466</v>
+        <v>0.3168060199534845</v>
       </c>
       <c r="F22" t="n">
-        <v>66.19057142857143</v>
+        <v>83.07474999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>2.902654080787073</v>
+        <v>4.097264672447228</v>
       </c>
       <c r="H22" t="n">
-        <v>216.4345419499512</v>
+        <v>189.9362452323989</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06150932318701256</v>
+        <v>0.1229530386345715</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06562046318798699</v>
+        <v>0.1260166844200728</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09690672199162456</v>
+        <v>0.1508002623523367</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1227931402367882</v>
+        <v>0.1439783356850982</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1060121335934834</v>
+        <v>0.2147544251698873</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09561136968483334</v>
+        <v>0.2254267914704532</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0207211113964332</v>
+        <v>0.03950835852887796</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00024002653662576</v>
+        <v>0.0003929811971148</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002571950892625054</v>
+        <v>0.0015347164520268</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001342436002221886</v>
+        <v>0.006125198479832518</v>
       </c>
       <c r="S22" t="n">
-        <v>0.002347419334458814</v>
+        <v>0.02534699838206925</v>
       </c>
       <c r="T22" t="n">
-        <v>0.008688325681246462</v>
+        <v>0.07146313368228792</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.442427158727899</v>
+        <v>0.8953431549261476</v>
       </c>
       <c r="C23" t="n">
-        <v>39.92216126785092</v>
+        <v>36.65081189563948</v>
       </c>
       <c r="D23" t="n">
-        <v>5.809864800785987</v>
+        <v>3.839736313312175</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1971166781099075</v>
+        <v>0.1110309205847733</v>
       </c>
       <c r="F23" t="n">
-        <v>91.54766666666667</v>
+        <v>99.44444444444444</v>
       </c>
       <c r="G23" t="n">
-        <v>6.47135069910932</v>
+        <v>9.351071884692574</v>
       </c>
       <c r="H23" t="n">
-        <v>159.845039558143</v>
+        <v>166.6795201605546</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4007083218823471</v>
+        <v>0.1755960295342663</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4000956196446575</v>
+        <v>0.1639476184371566</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3520790186465001</v>
+        <v>0.2325053056313683</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2695220263553303</v>
+        <v>0.1938848443204446</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2301116604881472</v>
+        <v>0.1481069717918871</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1411356986805515</v>
+        <v>0.1116918141225847</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3056542713025643</v>
+        <v>0.1125900764638518</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06422816725212448</v>
+        <v>0.07618815743023656</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1425409708980526</v>
+        <v>0.284194953640783</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1987520457684938</v>
+        <v>0.1099756826750388</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2324564481706398</v>
+        <v>0.1270157730198189</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3502897436163057</v>
+        <v>0.1664438911970092</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8177343488901434</v>
+        <v>0.13807573812326</v>
       </c>
       <c r="C24" t="n">
-        <v>47.73737373737374</v>
+        <v>52.32379862700229</v>
       </c>
       <c r="D24" t="n">
-        <v>14.0534532083683</v>
+        <v>29.10408902691512</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2773167244817828</v>
+        <v>0.08995707906286644</v>
       </c>
       <c r="F24" t="n">
-        <v>78.148</v>
+        <v>70</v>
       </c>
       <c r="G24" t="n">
-        <v>4.083152958152958</v>
+        <v>3.061784897025172</v>
       </c>
       <c r="H24" t="n">
-        <v>192.119258056758</v>
+        <v>247.4107551487414</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3188213189900837</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.22831583889507</v>
+        <v>0.0028013290004448</v>
       </c>
       <c r="K24" t="n">
-        <v>0.284675982954272</v>
+        <v>0.0083224344831264</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2255903353010717</v>
+        <v>0.027610624445796</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09293960247526269</v>
+        <v>0.05829075195722503</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04915490657289102</v>
+        <v>0.05385308720659743</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2908555092799545</v>
+        <v>0.03198469375988209</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07662637754096141</v>
+        <v>0.00415550856528864</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.06958627060990098</v>
+        <v>0.004159178428608</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08421466683300512</v>
+        <v>0.0016147398605184</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05626974890644144</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1919446799646676</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.09015190895475</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C25" t="n">
-        <v>36.7213601532567</v>
+        <v>54.6</v>
       </c>
       <c r="D25" t="n">
-        <v>4.261780811319356</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1447803546377845</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F25" t="n">
-        <v>98.333375</v>
+        <v>66.667</v>
       </c>
       <c r="G25" t="n">
-        <v>8.345865261813538</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>163.0530332056194</v>
+        <v>144.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2044810882351071</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1962381816595454</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2783230751139101</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L25" t="n">
-        <v>0.257188904098413</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2131079538446766</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1155229898156531</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1224779383240972</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08625346554887654</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3771291387698634</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08863620892853472</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1092389367360641</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1710135562899356</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,50 +2199,50 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.373228689079502</v>
+        <v>1.88151853570632</v>
       </c>
       <c r="C26" t="n">
-        <v>37.62068965517241</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>10.15907224958949</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9944239315966225</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F26" t="n">
-        <v>96.667</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>4.206896551724138</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>110.3103448275862</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>1.335361321267344</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="J26" t="n">
-        <v>0.80783594464896</v>
+        <v>0.579471418126944</v>
       </c>
       <c r="K26" t="n">
-        <v>0.609494395187232</v>
+        <v>0.3976352510516248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4233554325213696</v>
+        <v>0.642776560385904</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.455644113292872</v>
       </c>
       <c r="N26" t="n">
-        <v>0.367230989490624</v>
+        <v>0.257379747464448</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2251,15 +2251,498 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.007095069084096</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.488301527950272</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.309740856285772</v>
+        <v>0.09133882039296</v>
       </c>
       <c r="U26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.158965584225129</v>
+      </c>
+      <c r="C27" t="n">
+        <v>37.37486065749613</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.745479760358426</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3330126586434473</v>
+      </c>
+      <c r="F27" t="n">
+        <v>97.45490476190477</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.215131042101486</v>
+      </c>
+      <c r="H27" t="n">
+        <v>185.1423786667629</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2331795075308261</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1858097078675693</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2600280724676508</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3126574387918808</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3152172902613735</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2374529892836992</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2944588955223551</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.3098517932749597</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1575314937836263</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1608746988696919</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.1282605381241665</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1687878373656325</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.472481977828305</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66.94444444444444</v>
+      </c>
+      <c r="D28" t="n">
+        <v>28.47379062736205</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7040173397404554</v>
+      </c>
+      <c r="F28" t="n">
+        <v>55</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.047619047619047</v>
+      </c>
+      <c r="H28" t="n">
+        <v>206.3492063492063</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.231594880020032</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3359790451068391</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4459996012816124</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5586830539086586</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4126195624698542</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4187469738560861</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.03395846858181087</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4.89315109248e-05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0008134863691248</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0033395756206176</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.05943343645703487</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.0931914124224</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38.62086921380025</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.978842231549368</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5619978230860496</v>
+      </c>
+      <c r="F29" t="n">
+        <v>94.62960000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.840308012549391</v>
+      </c>
+      <c r="H29" t="n">
+        <v>160.6076434421262</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.415090648795333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4888375391631136</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8999907328774099</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.591279678942157</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6691970859760917</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.130782393275578</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1906246381773413</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.04621537837636395</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.09655375092646136</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1415472838759814</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1614326947037607</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.3653437618231462</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9007517648246273</v>
+      </c>
+      <c r="C30" t="n">
+        <v>43.03159662283225</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.32341437243948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2678225770905223</v>
+      </c>
+      <c r="F30" t="n">
+        <v>86.34916666666668</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.541545765324501</v>
+      </c>
+      <c r="H30" t="n">
+        <v>182.3542820857835</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3105044727346787</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.260915213742697</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2872725023033455</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2415732427076919</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1064666081861788</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.07524395034727166</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.3544700951259696</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.07972760959080677</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1561641116235712</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1616629878807559</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.08957110876982183</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2161745665254468</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8739357167761062</v>
+      </c>
+      <c r="C31" t="n">
+        <v>42.68451726914321</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.107502600425613</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2105783581221475</v>
+      </c>
+      <c r="F31" t="n">
+        <v>86</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.412075101338219</v>
+      </c>
+      <c r="H31" t="n">
+        <v>172.4612717807763</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2350244846658195</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1690448111189664</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.217575875238254</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.09712900307365439</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.217049970241796</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2518920578833862</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.272663964773282</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.2052445239192569</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1895561826287791</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1961846002596548</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.232245307602498</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.1578795112042159</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8904191651350203</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36.7463492063492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.079485035068635</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.116530181186195</v>
+      </c>
+      <c r="F32" t="n">
+        <v>99</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.055132275132275</v>
+      </c>
+      <c r="H32" t="n">
+        <v>161.6075661375662</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.158917642774851</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1425151324677443</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2132675138658103</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2239263020467333</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1597520517864905</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0977697265902695</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.09400455609900611</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0761117536061128</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.2853015889409482</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.07391730446595607</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.08469005471128717</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1396203939232713</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.827975440788543</v>
+      </c>
+      <c r="C33" t="n">
+        <v>37.02701149425287</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.130584150842772</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5126533091676253</v>
+      </c>
+      <c r="F33" t="n">
+        <v>98.3335</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.50344827586207</v>
+      </c>
+      <c r="H33" t="n">
+        <v>112.7551724137931</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.703402928956504</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4339913901468415</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.322811080376688</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.2278373477436</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01105272694797423</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.195511968338904</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0022875481357344</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0145311296349492</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.2740073262377171</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6936377768816956</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
